--- a/results_final/sigma_LM.xlsx
+++ b/results_final/sigma_LM.xlsx
@@ -519,91 +519,91 @@
         <v>0.3905760977195454</v>
       </c>
       <c r="D2">
-        <v>0.3168983977491536</v>
+        <v>0.3169117575356547</v>
       </c>
       <c r="E2">
-        <v>0.2651671354188915</v>
+        <v>0.2652003493183459</v>
       </c>
       <c r="F2">
-        <v>0.2277712604646538</v>
+        <v>0.227827772970586</v>
       </c>
       <c r="G2">
-        <v>0.2000565918689046</v>
+        <v>0.2001385285766181</v>
       </c>
       <c r="H2">
-        <v>0.1790739313696822</v>
+        <v>0.1791828986351477</v>
       </c>
       <c r="I2">
-        <v>0.1628942050871325</v>
+        <v>0.1630316597317336</v>
       </c>
       <c r="J2">
-        <v>0.1502192604848766</v>
+        <v>0.1503866758249953</v>
       </c>
       <c r="K2">
-        <v>0.140152973407354</v>
+        <v>0.140351907095409</v>
       </c>
       <c r="L2">
-        <v>0.1320624042331423</v>
+        <v>0.1322945184446357</v>
       </c>
       <c r="M2">
-        <v>0.1254911811242924</v>
+        <v>0.1257582398511433</v>
       </c>
       <c r="N2">
-        <v>0.1201040678048202</v>
+        <v>0.1204079236047151</v>
       </c>
       <c r="O2">
-        <v>0.1156506514009107</v>
+        <v>0.11599322784087</v>
       </c>
       <c r="P2">
-        <v>0.1119410406861414</v>
+        <v>0.1123243136502992</v>
       </c>
       <c r="Q2">
-        <v>0.1088292781908543</v>
+        <v>0.1092552576558309</v>
       </c>
       <c r="R2">
-        <v>0.1062018089719012</v>
+        <v>0.106672522040673</v>
       </c>
       <c r="S2">
-        <v>0.1039693273689392</v>
+        <v>0.1044868029261782</v>
       </c>
       <c r="T2">
-        <v>0.1020609202443253</v>
+        <v>0.1026271753670711</v>
       </c>
       <c r="U2">
-        <v>0.1004197971770325</v>
+        <v>0.1010368253097638</v>
       </c>
       <c r="V2">
-        <v>0.09900013421125956</v>
+        <v>0.09966989504538204</v>
       </c>
       <c r="W2">
-        <v>0.09776471031207301</v>
+        <v>0.09848912127137821</v>
       </c>
       <c r="X2">
-        <v>0.09668311585639706</v>
+        <v>0.09746404506902076</v>
       </c>
       <c r="Y2">
-        <v>0.09573037927613272</v>
+        <v>0.09656963990298024</v>
       </c>
       <c r="Z2">
-        <v>0.09488590313423083</v>
+        <v>0.09578524891993855</v>
       </c>
       <c r="AA2">
-        <v>0.09413263186387122</v>
+        <v>0.0950937537769691</v>
       </c>
       <c r="AB2">
-        <v>0.09345639487624703</v>
+        <v>0.09448091870893528</v>
       </c>
       <c r="AC2">
-        <v>0.09284538382140817</v>
+        <v>0.09393486862535788</v>
       </c>
       <c r="AD2">
-        <v>0.09228973349443698</v>
+        <v>0.09344567073660093</v>
       </c>
       <c r="AE2">
-        <v>0.09178118356570518</v>
+        <v>0.09300499689674994</v>
       </c>
       <c r="AF2">
-        <v>0.09131280388944706</v>
+        <v>0.09260584942666063</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -611,97 +611,97 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3342371379733694</v>
+        <v>0.3342371379733693</v>
       </c>
       <c r="C3">
-        <v>0.2600884103700621</v>
+        <v>0.260088410370062</v>
       </c>
       <c r="D3">
-        <v>0.2094743952397992</v>
+        <v>0.2095269469322019</v>
       </c>
       <c r="E3">
-        <v>0.1737222954112827</v>
+        <v>0.1738518107904518</v>
       </c>
       <c r="F3">
-        <v>0.1477066662001935</v>
+        <v>0.1479248605054835</v>
       </c>
       <c r="G3">
-        <v>0.1282785109704344</v>
+        <v>0.1285914435579844</v>
       </c>
       <c r="H3">
-        <v>0.1134351999865793</v>
+        <v>0.1138465358923872</v>
       </c>
       <c r="I3">
-        <v>0.1018633588843136</v>
+        <v>0.1023758777495654</v>
       </c>
       <c r="J3">
-        <v>0.09267763530129172</v>
+        <v>0.09329390898092457</v>
       </c>
       <c r="K3">
-        <v>0.0852663317238828</v>
+        <v>0.08598900248759375</v>
       </c>
       <c r="L3">
-        <v>0.07919738519950235</v>
+        <v>0.08002925220323923</v>
       </c>
       <c r="M3">
-        <v>0.07415950656856277</v>
+        <v>0.0751035224458529</v>
       </c>
       <c r="N3">
-        <v>0.06992439567202345</v>
+        <v>0.07098362385638847</v>
       </c>
       <c r="O3">
-        <v>0.06632192291110288</v>
+        <v>0.06749948095012846</v>
       </c>
       <c r="P3">
-        <v>0.06322348020526</v>
+        <v>0.06452248155668885</v>
       </c>
       <c r="Q3">
-        <v>0.06053059301753208</v>
+        <v>0.06195409329244835</v>
       </c>
       <c r="R3">
-        <v>0.05816698968767202</v>
+        <v>0.05971793993810608</v>
       </c>
       <c r="S3">
-        <v>0.05607298570141538</v>
+        <v>0.05775419360453452</v>
       </c>
       <c r="T3">
-        <v>0.05420144524217441</v>
+        <v>0.05601554413415602</v>
       </c>
       <c r="U3">
-        <v>0.05251483505666392</v>
+        <v>0.05446426031765377</v>
       </c>
       <c r="V3">
-        <v>0.05098304639917043</v>
+        <v>0.05307001847885869</v>
       </c>
       <c r="W3">
-        <v>0.04958176484993014</v>
+        <v>0.051808278141728</v>
       </c>
       <c r="X3">
-        <v>0.04829123623212452</v>
+        <v>0.05065905299402493</v>
       </c>
       <c r="Y3">
-        <v>0.04709532254933624</v>
+        <v>0.0496059710992426</v>
       </c>
       <c r="Z3">
-        <v>0.04598077281922051</v>
+        <v>0.04863554928385629</v>
       </c>
       <c r="AA3">
-        <v>0.044936654929543</v>
+        <v>0.04773662788859248</v>
       </c>
       <c r="AB3">
-        <v>0.04395390941827242</v>
+        <v>0.04689992685286131</v>
       </c>
       <c r="AC3">
-        <v>0.04302499647819595</v>
+        <v>0.04611769450125481</v>
       </c>
       <c r="AD3">
-        <v>0.0421436148903525</v>
+        <v>0.04538342780326349</v>
       </c>
       <c r="AE3">
-        <v>0.0413044769210292</v>
+        <v>0.04469164820456379</v>
       </c>
       <c r="AF3">
-        <v>0.04050312709609212</v>
+        <v>0.04403772100293134</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -715,91 +715,91 @@
         <v>0.3152491828189724</v>
       </c>
       <c r="D4">
-        <v>0.2920617953752965</v>
+        <v>0.2921241435662227</v>
       </c>
       <c r="E4">
-        <v>0.2729573815828863</v>
+        <v>0.27313053775047</v>
       </c>
       <c r="F4">
-        <v>0.2570129161771618</v>
+        <v>0.2573359529331327</v>
       </c>
       <c r="G4">
-        <v>0.2435451969710002</v>
+        <v>0.2440506712043449</v>
       </c>
       <c r="H4">
-        <v>0.2320408426751148</v>
+        <v>0.2327566521729865</v>
       </c>
       <c r="I4">
-        <v>0.2221088285954475</v>
+        <v>0.223059425901815</v>
       </c>
       <c r="J4">
-        <v>0.2134476980443583</v>
+        <v>0.2146548915203693</v>
       </c>
       <c r="K4">
-        <v>0.2058225171613958</v>
+        <v>0.2073060041146016</v>
       </c>
       <c r="L4">
-        <v>0.1990484161008554</v>
+        <v>0.2008261407751737</v>
       </c>
       <c r="M4">
-        <v>0.1929786578729928</v>
+        <v>0.1950670545752536</v>
       </c>
       <c r="N4">
-        <v>0.1874958688992316</v>
+        <v>0.189910029854664</v>
       </c>
       <c r="O4">
-        <v>0.1825055102165312</v>
+        <v>0.1852593043655514</v>
       </c>
       <c r="P4">
-        <v>0.1779309587581361</v>
+        <v>0.1810371189219009</v>
       </c>
       <c r="Q4">
-        <v>0.1737097608019173</v>
+        <v>0.1771799508032707</v>
       </c>
       <c r="R4">
-        <v>0.1697907493392662</v>
+        <v>0.1736356187435289</v>
       </c>
       <c r="S4">
-        <v>0.1661318055873631</v>
+        <v>0.1703610370754179</v>
       </c>
       <c r="T4">
-        <v>0.1626981060218536</v>
+        <v>0.1673204586087093</v>
       </c>
       <c r="U4">
-        <v>0.1594607391050045</v>
+        <v>0.164484089197128</v>
       </c>
       <c r="V4">
-        <v>0.1563956061915649</v>
+        <v>0.1618269876537963</v>
       </c>
       <c r="W4">
-        <v>0.1534825428005027</v>
+        <v>0.1593281866553387</v>
       </c>
       <c r="X4">
-        <v>0.1507046121566338</v>
+        <v>0.1569699861808127</v>
       </c>
       <c r="Y4">
-        <v>0.1480475344049408</v>
+        <v>0.1547373826621702</v>
       </c>
       <c r="Z4">
-        <v>0.1454992233992105</v>
+        <v>0.1526176056126463</v>
       </c>
       <c r="AA4">
-        <v>0.1430494093097043</v>
+        <v>0.1505997399046074</v>
       </c>
       <c r="AB4">
-        <v>0.1406893300733118</v>
+        <v>0.1486744166887777</v>
       </c>
       <c r="AC4">
-        <v>0.1384114783422766</v>
+        <v>0.1468335596066433</v>
       </c>
       <c r="AD4">
-        <v>0.1362093933727325</v>
+        <v>0.1450701757500303</v>
       </c>
       <c r="AE4">
-        <v>0.1340774894470317</v>
+        <v>0.1433781829845369</v>
       </c>
       <c r="AF4">
-        <v>0.1320109141005217</v>
+        <v>0.1417522669351872</v>
       </c>
     </row>
     <row r="5" spans="1:32">
@@ -813,91 +813,91 @@
         <v>0.4783134654375992</v>
       </c>
       <c r="D5">
-        <v>0.2860762221002148</v>
+        <v>0.286093539718858</v>
       </c>
       <c r="E5">
-        <v>0.1846722311590258</v>
+        <v>0.1847054463356645</v>
       </c>
       <c r="F5">
-        <v>0.1272045113207081</v>
+        <v>0.1272498318091849</v>
       </c>
       <c r="G5">
-        <v>0.0925891998109887</v>
+        <v>0.09264365605476603</v>
       </c>
       <c r="H5">
-        <v>0.07062922872074766</v>
+        <v>0.0706909491133067</v>
       </c>
       <c r="I5">
-        <v>0.05606901032386329</v>
+        <v>0.05613695876086881</v>
       </c>
       <c r="J5">
-        <v>0.04604488213019182</v>
+        <v>0.04611858415075475</v>
       </c>
       <c r="K5">
-        <v>0.03891838003274907</v>
+        <v>0.03899772474926067</v>
       </c>
       <c r="L5">
-        <v>0.03371076958962981</v>
+        <v>0.03379587955651578</v>
       </c>
       <c r="M5">
-        <v>0.02981465897434308</v>
+        <v>0.02990580708360904</v>
       </c>
       <c r="N5">
-        <v>0.02684009182382288</v>
+        <v>0.02693764828629196</v>
       </c>
       <c r="O5">
-        <v>0.02452900577142189</v>
+        <v>0.02463340383235567</v>
       </c>
       <c r="P5">
-        <v>0.02270592331136313</v>
+        <v>0.02281763656754825</v>
       </c>
       <c r="Q5">
-        <v>0.02124857896703177</v>
+        <v>0.02136810591057533</v>
       </c>
       <c r="R5">
-        <v>0.02006989451894008</v>
+        <v>0.02019774764583465</v>
       </c>
       <c r="S5">
-        <v>0.01910661550550414</v>
+        <v>0.01924331336999355</v>
       </c>
       <c r="T5">
-        <v>0.0183119688335648</v>
+        <v>0.01845803006033243</v>
       </c>
       <c r="U5">
-        <v>0.01765081053424723</v>
+        <v>0.01780674918174286</v>
       </c>
       <c r="V5">
-        <v>0.01709635205848564</v>
+        <v>0.01726267395714754</v>
       </c>
       <c r="W5">
-        <v>0.01662790894990794</v>
+        <v>0.01680510877820167</v>
       </c>
       <c r="X5">
-        <v>0.01622932492242135</v>
+        <v>0.0164178838674219</v>
       </c>
       <c r="Y5">
-        <v>0.01588785037680936</v>
+        <v>0.0160882342762569</v>
       </c>
       <c r="Z5">
-        <v>0.01559333193674539</v>
+        <v>0.01580598982937267</v>
       </c>
       <c r="AA5">
-        <v>0.01533761826294656</v>
+        <v>0.01556298129154196</v>
       </c>
       <c r="AB5">
-        <v>0.01511411852750918</v>
+        <v>0.01535259914964225</v>
       </c>
       <c r="AC5">
-        <v>0.01491747017160336</v>
+        <v>0.01516946163926608</v>
       </c>
       <c r="AD5">
-        <v>0.01474328594373959</v>
+        <v>0.01500916201720811</v>
       </c>
       <c r="AE5">
-        <v>0.01458795918395876</v>
+        <v>0.01486807404806708</v>
       </c>
       <c r="AF5">
-        <v>0.01444851241663383</v>
+        <v>0.01474320077000951</v>
       </c>
     </row>
     <row r="6" spans="1:32">
@@ -908,94 +908,94 @@
         <v>0.7939057911269858</v>
       </c>
       <c r="C6">
-        <v>0.4617406340821548</v>
+        <v>0.4617406340821549</v>
       </c>
       <c r="D6">
-        <v>0.290725189690728</v>
+        <v>0.2907695935229007</v>
       </c>
       <c r="E6">
-        <v>0.1958222371943119</v>
+        <v>0.1959111097804469</v>
       </c>
       <c r="F6">
-        <v>0.1396849115768862</v>
+        <v>0.1398105061119746</v>
       </c>
       <c r="G6">
-        <v>0.1046204114010797</v>
+        <v>0.1047757250479539</v>
       </c>
       <c r="H6">
-        <v>0.08167578516225489</v>
+        <v>0.08185597812948638</v>
       </c>
       <c r="I6">
-        <v>0.06605201422899291</v>
+        <v>0.06625415535605771</v>
       </c>
       <c r="J6">
-        <v>0.0550433176024397</v>
+        <v>0.05526587558020817</v>
       </c>
       <c r="K6">
-        <v>0.04705462388116237</v>
+        <v>0.04729703407087861</v>
       </c>
       <c r="L6">
-        <v>0.04110782375782032</v>
+        <v>0.04137017438585701</v>
       </c>
       <c r="M6">
-        <v>0.03658175924997286</v>
+        <v>0.03686457536663254</v>
       </c>
       <c r="N6">
-        <v>0.03306945030245353</v>
+        <v>0.03337354686822828</v>
       </c>
       <c r="O6">
-        <v>0.03029669808170292</v>
+        <v>0.03062307951033202</v>
       </c>
       <c r="P6">
-        <v>0.02807408392236773</v>
+        <v>0.02842387435942995</v>
       </c>
       <c r="Q6">
-        <v>0.02626778358426028</v>
+        <v>0.02664217755370188</v>
       </c>
       <c r="R6">
-        <v>0.02478132242851225</v>
+        <v>0.02518154914458921</v>
       </c>
       <c r="S6">
-        <v>0.02354387808091676</v>
+        <v>0.02397117511623645</v>
       </c>
       <c r="T6">
-        <v>0.02250260544523997</v>
+        <v>0.02295819897612563</v>
       </c>
       <c r="U6">
-        <v>0.02161749279272172</v>
+        <v>0.02210258261306718</v>
       </c>
       <c r="V6">
-        <v>0.02085784602737662</v>
+        <v>0.02137359413464299</v>
       </c>
       <c r="W6">
-        <v>0.02019984181090453</v>
+        <v>0.02074736375441958</v>
       </c>
       <c r="X6">
-        <v>0.01962479568889928</v>
+        <v>0.02020515411491431</v>
       </c>
       <c r="Y6">
-        <v>0.01911791694237194</v>
+        <v>0.0197321169254479</v>
       </c>
       <c r="Z6">
-        <v>0.01866740021964189</v>
+        <v>0.0193163860693895</v>
       </c>
       <c r="AA6">
-        <v>0.0182637537878116</v>
+        <v>0.01894840708494645</v>
       </c>
       <c r="AB6">
-        <v>0.0178992964400815</v>
+        <v>0.01862043509947632</v>
       </c>
       <c r="AC6">
-        <v>0.01756777625841843</v>
+        <v>0.01832615444765192</v>
       </c>
       <c r="AD6">
-        <v>0.01726407855390912</v>
+        <v>0.01806038731885884</v>
       </c>
       <c r="AE6">
-        <v>0.01698399986622665</v>
+        <v>0.01781886833364444</v>
       </c>
       <c r="AF6">
-        <v>0.01672407146063015</v>
+        <v>0.01759806850320923</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -1009,91 +1009,91 @@
         <v>0.8942357844094723</v>
       </c>
       <c r="D7">
-        <v>0.8246600428001647</v>
+        <v>0.8263220741659687</v>
       </c>
       <c r="E7">
-        <v>0.7503554647020287</v>
+        <v>0.7548573690415148</v>
       </c>
       <c r="F7">
-        <v>0.6751541249553831</v>
+        <v>0.6832009893801613</v>
       </c>
       <c r="G7">
-        <v>0.6018802310713701</v>
+        <v>0.6137668147753458</v>
       </c>
       <c r="H7">
-        <v>0.5324649118086707</v>
+        <v>0.5481614274898868</v>
       </c>
       <c r="I7">
-        <v>0.4681035101486756</v>
+        <v>0.487345323497457</v>
       </c>
       <c r="J7">
-        <v>0.4094196735833298</v>
+        <v>0.4317891505626995</v>
       </c>
       <c r="K7">
-        <v>0.3566158042853227</v>
+        <v>0.3816105167837965</v>
       </c>
       <c r="L7">
-        <v>0.3096003626944479</v>
+        <v>0.3366859542193051</v>
       </c>
       <c r="M7">
-        <v>0.2680895084373098</v>
+        <v>0.2967379846876463</v>
       </c>
       <c r="N7">
-        <v>0.2316845256369804</v>
+        <v>0.261399986545086</v>
       </c>
       <c r="O7">
-        <v>0.1999283658331885</v>
+        <v>0.2302626413291785</v>
       </c>
       <c r="P7">
-        <v>0.1723452353710446</v>
+        <v>0.2029058524864664</v>
       </c>
       <c r="Q7">
-        <v>0.1484670247658353</v>
+        <v>0.178919651251073</v>
       </c>
       <c r="R7">
-        <v>0.127849901604427</v>
+        <v>0.1579170317908785</v>
       </c>
       <c r="S7">
-        <v>0.1100837944124659</v>
+        <v>0.1395410553926391</v>
       </c>
       <c r="T7">
-        <v>0.09479690850967075</v>
+        <v>0.1234680149355309</v>
       </c>
       <c r="U7">
-        <v>0.08165689651365535</v>
+        <v>0.1094079894631471</v>
       </c>
       <c r="V7">
-        <v>0.07036987724301748</v>
+        <v>0.09710374996954607</v>
       </c>
       <c r="W7">
-        <v>0.06067815757962905</v>
+        <v>0.08632869364407941</v>
       </c>
       <c r="X7">
-        <v>0.05235725256750381</v>
+        <v>0.07688427146835568</v>
       </c>
       <c r="Y7">
-        <v>0.04521260619681283</v>
+        <v>0.06859721897979366</v>
       </c>
       <c r="Z7">
-        <v>0.03907627529487462</v>
+        <v>0.06131678916899595</v>
       </c>
       <c r="AA7">
-        <v>0.03380373950291642</v>
+        <v>0.05491210886647738</v>
       </c>
       <c r="AB7">
-        <v>0.02927093126601155</v>
+        <v>0.04926972678847748</v>
       </c>
       <c r="AC7">
-        <v>0.02537153298243964</v>
+        <v>0.04429138583909518</v>
       </c>
       <c r="AD7">
-        <v>0.02201455768433487</v>
+        <v>0.03989202917533405</v>
       </c>
       <c r="AE7">
-        <v>0.01912221014246568</v>
+        <v>0.03599803514699289</v>
       </c>
       <c r="AF7">
-        <v>0.01662801363143125</v>
+        <v>0.03254566777949724</v>
       </c>
     </row>
     <row r="8" spans="1:32">
@@ -1107,91 +1107,91 @@
         <v>0.4920265379592854</v>
       </c>
       <c r="D8">
-        <v>0.3905335278405191</v>
+        <v>0.3911294709438017</v>
       </c>
       <c r="E8">
-        <v>0.3147499308265803</v>
+        <v>0.3161790475844524</v>
       </c>
       <c r="F8">
-        <v>0.2570339933363206</v>
+        <v>0.259350733093257</v>
       </c>
       <c r="G8">
-        <v>0.2123002334819637</v>
+        <v>0.2154679938069632</v>
       </c>
       <c r="H8">
-        <v>0.177084060319211</v>
+        <v>0.181023574335725</v>
       </c>
       <c r="I8">
-        <v>0.1489741377997218</v>
+        <v>0.1535890994562453</v>
       </c>
       <c r="J8">
-        <v>0.1262590035384018</v>
+        <v>0.1314495470620456</v>
       </c>
       <c r="K8">
-        <v>0.1077018724396857</v>
+        <v>0.1133714953536077</v>
       </c>
       <c r="L8">
-        <v>0.09239402082473744</v>
+        <v>0.09845294395890751</v>
       </c>
       <c r="M8">
-        <v>0.07965743277723782</v>
+        <v>0.08602402265467392</v>
       </c>
       <c r="N8">
-        <v>0.06897897254628653</v>
+        <v>0.0755801179804651</v>
       </c>
       <c r="O8">
-        <v>0.05996512025946758</v>
+        <v>0.06673605595700488</v>
       </c>
       <c r="P8">
-        <v>0.0523103585813685</v>
+        <v>0.05919420894515486</v>
       </c>
       <c r="Q8">
-        <v>0.04577477062087779</v>
+        <v>0.05272196504148711</v>
       </c>
       <c r="R8">
-        <v>0.04016794822831645</v>
+        <v>0.04713559107642218</v>
       </c>
       <c r="S8">
-        <v>0.0353372848289638</v>
+        <v>0.04228852523073472</v>
       </c>
       <c r="T8">
-        <v>0.03115935512137987</v>
+        <v>0.03806278023640888</v>
       </c>
       <c r="U8">
-        <v>0.02753349506697961</v>
+        <v>0.03436255865296708</v>
       </c>
       <c r="V8">
-        <v>0.02437696858375132</v>
+        <v>0.03110946000316929</v>
       </c>
       <c r="W8">
-        <v>0.0216212911204669</v>
+        <v>0.02823884629806946</v>
       </c>
       <c r="X8">
-        <v>0.0192094055779899</v>
+        <v>0.02569705944182449</v>
       </c>
       <c r="Y8">
-        <v>0.01709349249385865</v>
+        <v>0.02343927138613367</v>
       </c>
       <c r="Z8">
-        <v>0.01523325672783064</v>
+        <v>0.02142780874006158</v>
       </c>
       <c r="AA8">
-        <v>0.01359457542150301</v>
+        <v>0.01963083635934306</v>
       </c>
       <c r="AB8">
-        <v>0.01214842229748092</v>
+        <v>0.01802131488701571</v>
       </c>
       <c r="AC8">
-        <v>0.01087000513976689</v>
+        <v>0.01657616907944186</v>
       </c>
       <c r="AD8">
-        <v>0.009738069090946032</v>
+        <v>0.01527561959442366</v>
       </c>
       <c r="AE8">
-        <v>0.008734329954181679</v>
+        <v>0.01410264249940046</v>
       </c>
       <c r="AF8">
-        <v>0.007843010206858314</v>
+        <v>0.01304252929465915</v>
       </c>
     </row>
     <row r="9" spans="1:32">
@@ -1202,94 +1202,94 @@
         <v>0.4895249003151677</v>
       </c>
       <c r="C9">
-        <v>0.3533422012297991</v>
+        <v>0.3533422012297993</v>
       </c>
       <c r="D9">
-        <v>0.2671258959364246</v>
+        <v>0.267180466790211</v>
       </c>
       <c r="E9">
-        <v>0.2100542643330834</v>
+        <v>0.2101817808211377</v>
       </c>
       <c r="F9">
-        <v>0.1708000252004869</v>
+        <v>0.1710054584931924</v>
       </c>
       <c r="G9">
-        <v>0.1428940641510447</v>
+        <v>0.1431778638345451</v>
       </c>
       <c r="H9">
-        <v>0.1224798829338368</v>
+        <v>0.1228414314930511</v>
       </c>
       <c r="I9">
-        <v>0.1071694189476131</v>
+        <v>0.1076083126454537</v>
       </c>
       <c r="J9">
-        <v>0.09543308865832763</v>
+        <v>0.09594953984797613</v>
       </c>
       <c r="K9">
-        <v>0.08626119479836319</v>
+        <v>0.08685608494337103</v>
       </c>
       <c r="L9">
-        <v>0.07896900990924741</v>
+        <v>0.07964381276008517</v>
       </c>
       <c r="M9">
-        <v>0.07308082830978667</v>
+        <v>0.07383749404609849</v>
       </c>
       <c r="N9">
-        <v>0.06825891430161059</v>
+        <v>0.06909975116761297</v>
       </c>
       <c r="O9">
-        <v>0.06425877115320328</v>
+        <v>0.06518633811575893</v>
       </c>
       <c r="P9">
-        <v>0.06090027829478585</v>
+        <v>0.06191729263844775</v>
       </c>
       <c r="Q9">
-        <v>0.05804864256467523</v>
+        <v>0.05915790248542723</v>
       </c>
       <c r="R9">
-        <v>0.0556015629448172</v>
+        <v>0.05680588381570054</v>
       </c>
       <c r="S9">
-        <v>0.05348041483084985</v>
+        <v>0.05478257744855564</v>
       </c>
       <c r="T9">
-        <v>0.05162408678792081</v>
+        <v>0.05302679594367656</v>
       </c>
       <c r="U9">
-        <v>0.04998460025224237</v>
+        <v>0.051490452136302</v>
       </c>
       <c r="V9">
-        <v>0.04852394843998981</v>
+        <v>0.0501354055788769</v>
       </c>
       <c r="W9">
-        <v>0.04721178245122322</v>
+        <v>0.04893115505174866</v>
       </c>
       <c r="X9">
-        <v>0.04602369499018893</v>
+        <v>0.04785312771418066</v>
       </c>
       <c r="Y9">
-        <v>0.04493993165458022</v>
+        <v>0.04688139497423554</v>
       </c>
       <c r="Z9">
-        <v>0.04394441223787326</v>
+        <v>0.04599969762798652</v>
       </c>
       <c r="AA9">
-        <v>0.04302397965376363</v>
+        <v>0.04519469796831807</v>
       </c>
       <c r="AB9">
-        <v>0.0421678179811292</v>
+        <v>0.04445540044155655</v>
       </c>
       <c r="AC9">
-        <v>0.04136699757293368</v>
+        <v>0.04377269886639021</v>
       </c>
       <c r="AD9">
-        <v>0.0406141166354669</v>
+        <v>0.04313901968551415</v>
       </c>
       <c r="AE9">
-        <v>0.03990301677047146</v>
+        <v>0.04254803880068127</v>
       </c>
       <c r="AF9">
-        <v>0.03922855574231787</v>
+        <v>0.04199445530619623</v>
       </c>
     </row>
     <row r="10" spans="1:32">
@@ -1300,94 +1300,94 @@
         <v>1.142341997113088</v>
       </c>
       <c r="C10">
-        <v>0.8084302649704131</v>
+        <v>0.8084302649704126</v>
       </c>
       <c r="D10">
-        <v>0.6052880685517793</v>
+        <v>0.6050760711793334</v>
       </c>
       <c r="E10">
-        <v>0.475407765845223</v>
+        <v>0.4749132418411396</v>
       </c>
       <c r="F10">
-        <v>0.3888838924412886</v>
+        <v>0.3880830662278461</v>
       </c>
       <c r="G10">
-        <v>0.329274802679407</v>
+        <v>0.3281563163636826</v>
       </c>
       <c r="H10">
-        <v>0.287089355861485</v>
+        <v>0.2856418324190649</v>
       </c>
       <c r="I10">
-        <v>0.2566083583274778</v>
+        <v>0.2548161253422136</v>
       </c>
       <c r="J10">
-        <v>0.2342521458785642</v>
+        <v>0.2320940180734863</v>
       </c>
       <c r="K10">
-        <v>0.217703266294935</v>
+        <v>0.2151524439144471</v>
       </c>
       <c r="L10">
-        <v>0.2054154648813945</v>
+        <v>0.2024398026333172</v>
       </c>
       <c r="M10">
-        <v>0.1963287055565991</v>
+        <v>0.1928910719575324</v>
       </c>
       <c r="N10">
-        <v>0.1896982802943971</v>
+        <v>0.1857569094885511</v>
       </c>
       <c r="O10">
-        <v>0.1849892690202772</v>
+        <v>0.1804980775110794</v>
       </c>
       <c r="P10">
-        <v>0.181809598782066</v>
+        <v>0.1767184651769494</v>
       </c>
       <c r="Q10">
-        <v>0.1798665457510252</v>
+        <v>0.1741215595499725</v>
       </c>
       <c r="R10">
-        <v>0.1789378406996125</v>
+        <v>0.1724815273370359</v>
       </c>
       <c r="S10">
-        <v>0.1788520845092441</v>
+        <v>0.1716236127498073</v>
       </c>
       <c r="T10">
-        <v>0.1794752258913041</v>
+        <v>0.1714106020527652</v>
       </c>
       <c r="U10">
-        <v>0.1807010637351566</v>
+        <v>0.1717333157165533</v>
       </c>
       <c r="V10">
-        <v>0.1824444693232067</v>
+        <v>0.1725038222476461</v>
       </c>
       <c r="W10">
-        <v>0.1846364770299553</v>
+        <v>0.1736505214807439</v>
       </c>
       <c r="X10">
-        <v>0.1872206782404747</v>
+        <v>0.1751145315271154</v>
       </c>
       <c r="Y10">
-        <v>0.1901505371403807</v>
+        <v>0.1768469977119904</v>
       </c>
       <c r="Z10">
-        <v>0.1933873672818189</v>
+        <v>0.1788070622484888</v>
       </c>
       <c r="AA10">
-        <v>0.1968987877058455</v>
+        <v>0.1809603133820812</v>
       </c>
       <c r="AB10">
-        <v>0.2006575312378646</v>
+        <v>0.1832775866462172</v>
       </c>
       <c r="AC10">
-        <v>0.2046405143515959</v>
+        <v>0.1857340276886968</v>
       </c>
       <c r="AD10">
-        <v>0.208828103438698</v>
+        <v>0.1883083515883527</v>
       </c>
       <c r="AE10">
-        <v>0.2132035301251606</v>
+        <v>0.19098225138897</v>
       </c>
       <c r="AF10">
-        <v>0.2177524208693296</v>
+        <v>0.1937399211647679</v>
       </c>
     </row>
     <row r="11" spans="1:32">
@@ -1395,97 +1395,97 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.448273530049218</v>
+        <v>0.4482735300492183</v>
       </c>
       <c r="C11">
-        <v>0.4042959484233922</v>
+        <v>0.4042959484233923</v>
       </c>
       <c r="D11">
-        <v>0.370081972548219</v>
+        <v>0.3701008737170578</v>
       </c>
       <c r="E11">
-        <v>0.3430638365318909</v>
+        <v>0.3431158948558972</v>
       </c>
       <c r="F11">
-        <v>0.3214483376183448</v>
+        <v>0.3215449599553493</v>
       </c>
       <c r="G11">
-        <v>0.303955698725921</v>
+        <v>0.3041065205048907</v>
       </c>
       <c r="H11">
-        <v>0.2896545261918124</v>
+        <v>0.2898680671860973</v>
       </c>
       <c r="I11">
-        <v>0.2778549260755826</v>
+        <v>0.2781389925250361</v>
       </c>
       <c r="J11">
-        <v>0.2680377215577992</v>
+        <v>0.2683996527596583</v>
       </c>
       <c r="K11">
-        <v>0.2598066051259956</v>
+        <v>0.2602534231405731</v>
       </c>
       <c r="L11">
-        <v>0.2528551747429325</v>
+        <v>0.2533936730725452</v>
       </c>
       <c r="M11">
-        <v>0.2469438208820877</v>
+        <v>0.247580614504234</v>
       </c>
       <c r="N11">
-        <v>0.2418832529804132</v>
+        <v>0.242624803959376</v>
       </c>
       <c r="O11">
-        <v>0.2375225771789985</v>
+        <v>0.2383752050334925</v>
       </c>
       <c r="P11">
-        <v>0.2337405436794349</v>
+        <v>0.234710426495559</v>
       </c>
       <c r="Q11">
-        <v>0.2304390345085634</v>
+        <v>0.2315322047329441</v>
       </c>
       <c r="R11">
-        <v>0.2275381572181331</v>
+        <v>0.2287604947184227</v>
       </c>
       <c r="S11">
-        <v>0.2249725050778977</v>
+        <v>0.2263297291596711</v>
       </c>
       <c r="T11">
-        <v>0.2226882752842713</v>
+        <v>0.224185936747209</v>
       </c>
       <c r="U11">
-        <v>0.2206410258634312</v>
+        <v>0.2222844997669278</v>
       </c>
       <c r="V11">
-        <v>0.2187939134311468</v>
+        <v>0.2205883929572651</v>
       </c>
       <c r="W11">
-        <v>0.2171162968907623</v>
+        <v>0.2190667884998275</v>
       </c>
       <c r="X11">
-        <v>0.2155826224596607</v>
+        <v>0.2176939424035341</v>
       </c>
       <c r="Y11">
-        <v>0.2141715270563886</v>
+        <v>0.2164482992280891</v>
       </c>
       <c r="Z11">
-        <v>0.2128651126991369</v>
+        <v>0.2153117677422007</v>
       </c>
       <c r="AA11">
-        <v>0.2116483559544682</v>
+        <v>0.2142691315222133</v>
       </c>
       <c r="AB11">
-        <v>0.2105086248622591</v>
+        <v>0.2133075668994989</v>
       </c>
       <c r="AC11">
-        <v>0.2094352820001117</v>
+        <v>0.2124162469131449</v>
       </c>
       <c r="AD11">
-        <v>0.208419357033276</v>
+        <v>0.2115860146147522</v>
       </c>
       <c r="AE11">
-        <v>0.2074532756445196</v>
+        <v>0.2108091126255272</v>
       </c>
       <c r="AF11">
-        <v>0.2065306344514869</v>
+        <v>0.2100789585620872</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -1496,94 +1496,94 @@
         <v>0.4920378988480285</v>
       </c>
       <c r="C12">
-        <v>0.4047685500301602</v>
+        <v>0.4047685500301601</v>
       </c>
       <c r="D12">
-        <v>0.3412387550659384</v>
+        <v>0.3413659962441359</v>
       </c>
       <c r="E12">
-        <v>0.293748386555137</v>
+        <v>0.2940739285768695</v>
       </c>
       <c r="F12">
-        <v>0.2574049305541055</v>
+        <v>0.2579702620285807</v>
       </c>
       <c r="G12">
-        <v>0.2290035279115651</v>
+        <v>0.2298343031155765</v>
       </c>
       <c r="H12">
-        <v>0.2063868448716974</v>
+        <v>0.2075001144411892</v>
       </c>
       <c r="I12">
-        <v>0.1880668343158914</v>
+        <v>0.1894748958096219</v>
       </c>
       <c r="J12">
-        <v>0.1729944134358493</v>
+        <v>0.1747068660963039</v>
       </c>
       <c r="K12">
-        <v>0.1604153221279675</v>
+        <v>0.1624401518191394</v>
       </c>
       <c r="L12">
-        <v>0.1497776351146635</v>
+        <v>0.1521217707728494</v>
       </c>
       <c r="M12">
-        <v>0.14067104544131</v>
+        <v>0.1433406277987311</v>
       </c>
       <c r="N12">
-        <v>0.1327861596799408</v>
+        <v>0.1357866557690263</v>
       </c>
       <c r="O12">
-        <v>0.1258866764318968</v>
+        <v>0.1292229147119245</v>
       </c>
       <c r="P12">
-        <v>0.1197900281770038</v>
+        <v>0.123466196377745</v>
       </c>
       <c r="Q12">
-        <v>0.1143536879910137</v>
+        <v>0.1183733171654047</v>
       </c>
       <c r="R12">
-        <v>0.1094653346158422</v>
+        <v>0.1138312821760967</v>
       </c>
       <c r="S12">
-        <v>0.1050356885052946</v>
+        <v>0.1097501267840513</v>
       </c>
       <c r="T12">
-        <v>0.100993225171117</v>
+        <v>0.1060576384157411</v>
       </c>
       <c r="U12">
-        <v>0.09728022688585421</v>
+        <v>0.1026954174932598</v>
       </c>
       <c r="V12">
-        <v>0.0938498013089409</v>
+        <v>0.09961590492479255</v>
       </c>
       <c r="W12">
-        <v>0.09066360744439507</v>
+        <v>0.09678011592204842</v>
       </c>
       <c r="X12">
-        <v>0.08769010508986323</v>
+        <v>0.09415589601343753</v>
       </c>
       <c r="Y12">
-        <v>0.08490319594349795</v>
+        <v>0.09171656733298429</v>
       </c>
       <c r="Z12">
-        <v>0.08228116070222267</v>
+        <v>0.08943986955364598</v>
       </c>
       <c r="AA12">
-        <v>0.0798058219466178</v>
+        <v>0.08730712536463922</v>
       </c>
       <c r="AB12">
-        <v>0.07746188074367684</v>
+        <v>0.08530257856426038</v>
       </c>
       <c r="AC12">
-        <v>0.0752363879621356</v>
+        <v>0.08341286591768625</v>
       </c>
       <c r="AD12">
-        <v>0.0731183208060955</v>
+        <v>0.08162659344131794</v>
       </c>
       <c r="AE12">
-        <v>0.07109824206860217</v>
+        <v>0.07993399476391845</v>
       </c>
       <c r="AF12">
-        <v>0.06916802480334265</v>
+        <v>0.07832665439920403</v>
       </c>
     </row>
     <row r="13" spans="1:32">
@@ -1594,94 +1594,94 @@
         <v>0.5528235542392858</v>
       </c>
       <c r="C13">
-        <v>0.4784334037231909</v>
+        <v>0.4784334037231904</v>
       </c>
       <c r="D13">
-        <v>0.4127870780885224</v>
+        <v>0.4135846053128896</v>
       </c>
       <c r="E13">
-        <v>0.3553011367980667</v>
+        <v>0.3573444988145693</v>
       </c>
       <c r="F13">
-        <v>0.3052698788001869</v>
+        <v>0.3087570593158988</v>
       </c>
       <c r="G13">
-        <v>0.2619392685274747</v>
+        <v>0.2668965637086338</v>
       </c>
       <c r="H13">
-        <v>0.2245568404043336</v>
+        <v>0.2308991854498516</v>
       </c>
       <c r="I13">
-        <v>0.1924034734075709</v>
+        <v>0.1999792369292287</v>
       </c>
       <c r="J13">
-        <v>0.1648119728917005</v>
+        <v>0.1734351567953697</v>
       </c>
       <c r="K13">
-        <v>0.1411763842902447</v>
+        <v>0.1506489646807781</v>
       </c>
       <c r="L13">
-        <v>0.120955036449409</v>
+        <v>0.1310818129218017</v>
       </c>
       <c r="M13">
-        <v>0.1036695304368793</v>
+        <v>0.1142674346238963</v>
       </c>
       <c r="N13">
-        <v>0.08890126427931941</v>
+        <v>0.09980467830799417</v>
       </c>
       <c r="O13">
-        <v>0.07628660290771215</v>
+        <v>0.08734988538237795</v>
       </c>
       <c r="P13">
-        <v>0.06551144353816629</v>
+        <v>0.07660956560334323</v>
       </c>
       <c r="Q13">
-        <v>0.05630566568214233</v>
+        <v>0.06733362228217636</v>
       </c>
       <c r="R13">
-        <v>0.04843776968746538</v>
+        <v>0.05930924550864448</v>
       </c>
       <c r="S13">
-        <v>0.0417098792680032</v>
+        <v>0.05235550708006476</v>
       </c>
       <c r="T13">
-        <v>0.03595319669887458</v>
+        <v>0.04631863971041816</v>
       </c>
       <c r="U13">
-        <v>0.03102394247299365</v>
+        <v>0.04106795436854282</v>
       </c>
       <c r="V13">
-        <v>0.02679977537377851</v>
+        <v>0.03649233547141107</v>
       </c>
       <c r="W13">
-        <v>0.02317666759166271</v>
+        <v>0.03249724876582511</v>
       </c>
       <c r="X13">
-        <v>0.02006619798145445</v>
+        <v>0.02900219743132694</v>
       </c>
       <c r="Y13">
-        <v>0.01739322147176462</v>
+        <v>0.02593856581277538</v>
       </c>
       <c r="Z13">
-        <v>0.01509387165381804</v>
+        <v>0.02324779567467367</v>
       </c>
       <c r="AA13">
-        <v>0.01311385508483671</v>
+        <v>0.02087984597152774</v>
       </c>
       <c r="AB13">
-        <v>0.0114069987547391</v>
+        <v>0.01879189324882415</v>
       </c>
       <c r="AC13">
-        <v>0.00993401576756388</v>
+        <v>0.01694723558401672</v>
       </c>
       <c r="AD13">
-        <v>0.008661458121211342</v>
+        <v>0.01531436826869371</v>
       </c>
       <c r="AE13">
-        <v>0.007560829247342909</v>
+        <v>0.01386620414900773</v>
       </c>
       <c r="AF13">
-        <v>0.006607832532902678</v>
+        <v>0.0125794156722277</v>
       </c>
     </row>
   </sheetData>
